--- a/src/main/webapp/uploadFiles/file/PL_Mapping.xlsx
+++ b/src/main/webapp/uploadFiles/file/PL_Mapping.xlsx
@@ -26,25 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>TBCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVEAL_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY_ACCOUNT_NUM</t>
-  </si>
-  <si>
-    <t>DESCRIPSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOURCETABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存款利息收入</t>
   </si>
   <si>
@@ -57,6 +38,24 @@
   </si>
   <si>
     <t>D01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表项</t>
+  </si>
+  <si>
+    <t>表项名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披露名称</t>
+  </si>
+  <si>
+    <t>EY科目代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +105,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,9 +161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,50 +459,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>6011</v>
       </c>
     </row>

--- a/src/main/webapp/uploadFiles/file/PL_Mapping.xlsx
+++ b/src/main/webapp/uploadFiles/file/PL_Mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>存款利息收入</t>
   </si>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>EY科目代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户项名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,23 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,29 +488,35 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>6011</v>
       </c>
     </row>
